--- a/games/烟雨江湖/橙装序列.xlsx
+++ b/games/烟雨江湖/橙装序列.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xpdh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\codeProjedt\other\my_docs\games\烟雨江湖\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C7F4EE-B345-460E-97D0-BD3B8F84BFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81AA2981-D1C4-497B-83F8-EE2062E58960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="194">
   <si>
     <t>老君符</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +537,270 @@
   </si>
   <si>
     <t>防御143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽风剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御143 招架59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架77 破闪避2.5 真元2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避90 招架63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血290 速度83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青云戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御222 攻击97 拳脚2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血392 闪避95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击167 气血267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪棍5.8 命中75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉衡护腰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架92 招架59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架91 速度77 命中52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回血97 闪避75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度82 招架58 速度48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度70 命中75 招架36 防御270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架82 攻击89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免伤2.4 韧性99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击150 招架79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架83 命中66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架70 闪避78 闪避52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击119 招架65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中77 闪避85 命中89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架75 攻击107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫薇护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御207 防御213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击112 防御179 剑法2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法3.8 气血283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击121 速度61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳脚5.8 拳脚2.7 枪棍3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血417 速度56 速度35 防御270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破闪避2.8 刀法2.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御218 闪避78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避102 反伤2.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拳脚6.4 刀法2.1 攻击101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑法4.4 拳脚3.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击129 反伤2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碎虚枪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度82 防御109</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破甲4.4 破闪避2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御129 招架65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲4.3 破招架1.8 气血143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪狼棍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御124 溅伤7.2 速度43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度70 速度63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架92 防御95 气血185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撼岳指套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性150 防御185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破招架3.6 破招架1.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲3.1 防御227 防御118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架142 气血315</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲2.6 防御140 气血183</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破军指套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿甲3.9 闪避69 闪避44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度65 速度70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血331 气血226</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避100 速度70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性171 气血307</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南阳渡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧性120 气血283</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刀法3.8 攻击89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招架81 枪棍3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真元12 拳脚4.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度94 招架74 攻击20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避111 招架66 防御80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -892,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -992,8 +1256,14 @@
       <c r="B2" t="s">
         <v>124</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
         <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>193</v>
       </c>
       <c r="Q2" t="s">
         <v>1</v>
@@ -1039,6 +1309,21 @@
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1049,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386F63EE-9778-48BE-B34B-E3ED2CA87004}">
-  <dimension ref="A2:F141"/>
+  <dimension ref="A2:F328"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B126" sqref="B126"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1371,7 @@
       <c r="D3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1097,10 +1382,10 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1108,10 +1393,10 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1122,13 +1407,13 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1139,10 +1424,10 @@
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1167,7 +1452,7 @@
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1178,7 +1463,7 @@
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -1192,13 +1477,13 @@
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1206,10 +1491,10 @@
       <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1220,7 +1505,7 @@
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1228,7 +1513,7 @@
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1236,7 +1521,7 @@
       <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1244,7 +1529,7 @@
       <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1317,7 +1602,7 @@
       <c r="A29">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1325,7 +1610,7 @@
       <c r="A30">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1341,7 +1626,7 @@
       <c r="A32">
         <v>7</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1349,7 +1634,7 @@
       <c r="A33">
         <v>8</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1357,7 +1642,7 @@
       <c r="A34">
         <v>9</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1373,13 +1658,13 @@
       <c r="A36">
         <v>11</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1387,13 +1672,13 @@
       <c r="A37">
         <v>12</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="2" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1401,7 +1686,7 @@
       <c r="A38">
         <v>13</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="3" t="s">
@@ -1421,7 +1706,7 @@
       <c r="D39" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1470,7 +1755,7 @@
       <c r="A48">
         <v>1</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1478,7 +1763,7 @@
       <c r="A49">
         <v>2</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1486,7 +1771,7 @@
       <c r="A50">
         <v>3</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1502,7 +1787,7 @@
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1510,7 +1795,7 @@
       <c r="A53">
         <v>6</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1518,7 +1803,7 @@
       <c r="A54">
         <v>7</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1534,7 +1819,7 @@
       <c r="A56">
         <v>9</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1550,7 +1835,7 @@
       <c r="A58">
         <v>11</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1566,7 +1851,7 @@
       <c r="A60">
         <v>13</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1582,7 +1867,7 @@
       <c r="A62">
         <v>15</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1590,7 +1875,7 @@
       <c r="A63">
         <v>16</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1626,7 +1911,7 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1650,7 +1935,7 @@
       <c r="A73">
         <v>4</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1666,7 +1951,7 @@
       <c r="A75">
         <v>6</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1674,7 +1959,7 @@
       <c r="A76">
         <v>7</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1682,7 +1967,7 @@
       <c r="A77">
         <v>8</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1698,7 +1983,7 @@
       <c r="A79">
         <v>10</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1706,11 +1991,11 @@
       <c r="A80">
         <v>11</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>12</v>
       </c>
@@ -1718,7 +2003,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>13</v>
       </c>
@@ -1726,7 +2011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>14</v>
       </c>
@@ -1734,7 +2019,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>15</v>
       </c>
@@ -1742,23 +2027,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>16</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>17</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>18</v>
       </c>
@@ -1766,15 +2051,15 @@
         <v>72</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>19</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20</v>
       </c>
@@ -1782,7 +2067,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>21</v>
       </c>
@@ -1790,7 +2075,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>22</v>
       </c>
@@ -1798,23 +2083,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>23</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>24</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>25</v>
       </c>
@@ -1822,103 +2108,119 @@
         <v>79</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>26</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>27</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>109</v>
       </c>
       <c r="B99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D100" s="2"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D101" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>3</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D102" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>4</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D103" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D104" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>6</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>9</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>10</v>
       </c>
@@ -1926,176 +2228,1331 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>11</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>19</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D122" s="2"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D123" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>3</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D124" s="2"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>4</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D125" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>5</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D126" s="2"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B130" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>10</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>15</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>18</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>128</v>
+      </c>
+      <c r="B143" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1</v>
+      </c>
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>3</v>
+      </c>
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>4</v>
+      </c>
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>5</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>6</v>
+      </c>
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>7</v>
+      </c>
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>9</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>11</v>
+      </c>
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>133</v>
+      </c>
+      <c r="B165" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>1</v>
+      </c>
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>2</v>
+      </c>
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>3</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>4</v>
+      </c>
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>5</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>6</v>
+      </c>
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>7</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>8</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>10</v>
+      </c>
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>11</v>
+      </c>
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>138</v>
+      </c>
+      <c r="B187" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188">
+        <v>1</v>
+      </c>
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189">
+        <v>2</v>
+      </c>
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>3</v>
+      </c>
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>4</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>5</v>
+      </c>
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>6</v>
+      </c>
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>7</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>8</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>9</v>
+      </c>
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>11</v>
+      </c>
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>12</v>
+      </c>
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>14</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>15</v>
+      </c>
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>16</v>
+      </c>
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>17</v>
+      </c>
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>18</v>
+      </c>
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>19</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20</v>
+      </c>
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>21</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>22</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>23</v>
+      </c>
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>24</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>25</v>
+      </c>
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>26</v>
+      </c>
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>27</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>28</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>29</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>152</v>
+      </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>1</v>
+      </c>
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>2</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>3</v>
+      </c>
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>4</v>
+      </c>
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>5</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>6</v>
+      </c>
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>7</v>
+      </c>
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>8</v>
+      </c>
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>9</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>10</v>
+      </c>
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>11</v>
+      </c>
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>12</v>
+      </c>
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>13</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>14</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>15</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>16</v>
+      </c>
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>17</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>18</v>
+      </c>
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>19</v>
+      </c>
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>21</v>
+      </c>
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>22</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>23</v>
+      </c>
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>24</v>
+      </c>
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>25</v>
+      </c>
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>26</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>27</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>28</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>29</v>
+      </c>
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>165</v>
+      </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>1</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>2</v>
+      </c>
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>3</v>
+      </c>
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>4</v>
+      </c>
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>5</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>6</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>7</v>
+      </c>
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>8</v>
+      </c>
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>9</v>
+      </c>
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>10</v>
+      </c>
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>11</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>170</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>1</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>2</v>
+      </c>
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>3</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>4</v>
+      </c>
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>5</v>
+      </c>
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>6</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>7</v>
+      </c>
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>8</v>
+      </c>
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>9</v>
+      </c>
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>10</v>
+      </c>
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>11</v>
+      </c>
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>174</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>7</v>
+      </c>
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>8</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>9</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>10</v>
+      </c>
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>11</v>
+      </c>
+      <c r="B306" s="2"/>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>1</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>2</v>
+      </c>
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>3</v>
+      </c>
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>4</v>
+      </c>
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>5</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>6</v>
+      </c>
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>7</v>
+      </c>
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>8</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>9</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>11</v>
+      </c>
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A328">
         <v>20</v>
       </c>
     </row>
